--- a/supplementary/data6.xlsx
+++ b/supplementary/data6.xlsx
@@ -12,16 +12,13 @@
     <sheet name="sigma1l0.15" sheetId="3" r:id="rId3"/>
     <sheet name="sigma2l0.15" sheetId="4" r:id="rId4"/>
     <sheet name="sigma1.5l0.15" sheetId="5" r:id="rId5"/>
-    <sheet name="sigma1" sheetId="6" r:id="rId6"/>
-    <sheet name="sigma1.5" sheetId="7" r:id="rId7"/>
-    <sheet name="sigma2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="50">
   <si>
     <t>Supplemental Data 6: Varying proximity simulation parameters and corresponding fit values</t>
   </si>
@@ -156,15 +153,6 @@
   </si>
   <si>
     <t>sigma1.5l0.15</t>
-  </si>
-  <si>
-    <t>sigma1</t>
-  </si>
-  <si>
-    <t>sigma1.5</t>
-  </si>
-  <si>
-    <t>sigma2</t>
   </si>
   <si>
     <t>Mean</t>
@@ -719,7 +707,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -889,120 +877,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5">
-        <v>1.4</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>0.15</v>
-      </c>
-      <c r="E5">
-        <v>0.5</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>90</v>
-      </c>
-      <c r="H5">
-        <v>3000</v>
-      </c>
-      <c r="I5">
-        <v>150</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>500</v>
-      </c>
-      <c r="L5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6">
-        <v>1.4</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>0.15</v>
-      </c>
-      <c r="E6">
-        <v>0.5</v>
-      </c>
-      <c r="F6">
-        <v>1.5</v>
-      </c>
-      <c r="G6">
-        <v>90</v>
-      </c>
-      <c r="H6">
-        <v>3000</v>
-      </c>
-      <c r="I6">
-        <v>150</v>
-      </c>
-      <c r="J6">
-        <v>10</v>
-      </c>
-      <c r="K6">
-        <v>500</v>
-      </c>
-      <c r="L6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7">
-        <v>1.4</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>0.15</v>
-      </c>
-      <c r="E7">
-        <v>0.5</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>90</v>
-      </c>
-      <c r="H7">
-        <v>3000</v>
-      </c>
-      <c r="I7">
-        <v>150</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7">
-        <v>500</v>
-      </c>
-      <c r="L7">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1025,7 +899,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -1034,7 +908,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1107,7 +981,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0.1667</v>
@@ -1140,7 +1014,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0.9718</v>
@@ -1148,7 +1022,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0.9247</v>
@@ -1222,7 +1096,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -1231,7 +1105,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1304,7 +1178,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0.1721</v>
@@ -1337,7 +1211,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0.9350000000000001</v>
@@ -1345,7 +1219,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0.79</v>
@@ -1419,7 +1293,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -1428,7 +1302,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1501,7 +1375,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0.1721</v>
@@ -1534,7 +1408,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0.9661</v>
@@ -1542,7 +1416,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0.8507</v>
@@ -1592,597 +1466,6 @@
       </c>
       <c r="D15">
         <v>0.9714</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2">
-        <v>7.0309</v>
-      </c>
-      <c r="C2">
-        <v>7.0106</v>
-      </c>
-      <c r="D2">
-        <v>7.0523</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>0.9784</v>
-      </c>
-      <c r="C3">
-        <v>0.9093</v>
-      </c>
-      <c r="D3">
-        <v>1.0512</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>0.4748</v>
-      </c>
-      <c r="C4">
-        <v>0.4558</v>
-      </c>
-      <c r="D4">
-        <v>0.4934</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0.1463</v>
-      </c>
-      <c r="C5">
-        <v>0.1304</v>
-      </c>
-      <c r="D5">
-        <v>0.1615</v>
-      </c>
-      <c r="E5">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <v>0.1714</v>
-      </c>
-      <c r="C6">
-        <v>0.15</v>
-      </c>
-      <c r="D6">
-        <v>0.1926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>3.9183</v>
-      </c>
-      <c r="E7">
-        <v>3.7589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>0.8581</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9">
-        <v>0.9463</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10">
-        <v>0.8171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>0.8699</v>
-      </c>
-      <c r="C15">
-        <v>0.4902</v>
-      </c>
-      <c r="D15">
-        <v>0.9556</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2">
-        <v>7.0396</v>
-      </c>
-      <c r="C2">
-        <v>7.0217</v>
-      </c>
-      <c r="D2">
-        <v>7.0591</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>1.4903</v>
-      </c>
-      <c r="C3">
-        <v>1.379</v>
-      </c>
-      <c r="D3">
-        <v>1.6029</v>
-      </c>
-      <c r="E3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>0.4716</v>
-      </c>
-      <c r="C4">
-        <v>0.4534</v>
-      </c>
-      <c r="D4">
-        <v>0.4905</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0.153</v>
-      </c>
-      <c r="C5">
-        <v>0.1359</v>
-      </c>
-      <c r="D5">
-        <v>0.17</v>
-      </c>
-      <c r="E5">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <v>0.1808</v>
-      </c>
-      <c r="C6">
-        <v>0.1572</v>
-      </c>
-      <c r="D6">
-        <v>0.2049</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>3.896</v>
-      </c>
-      <c r="E7">
-        <v>3.7589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>0.7422</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9">
-        <v>0.8616</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10">
-        <v>0.7093</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>0.7594</v>
-      </c>
-      <c r="C15">
-        <v>0.3129</v>
-      </c>
-      <c r="D15">
-        <v>0.9275</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2">
-        <v>7.0317</v>
-      </c>
-      <c r="C2">
-        <v>7.0114</v>
-      </c>
-      <c r="D2">
-        <v>7.053</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>1.875</v>
-      </c>
-      <c r="C3">
-        <v>1.7329</v>
-      </c>
-      <c r="D3">
-        <v>2.0239</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>0.4763</v>
-      </c>
-      <c r="C4">
-        <v>0.4567</v>
-      </c>
-      <c r="D4">
-        <v>0.4954</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0.1449</v>
-      </c>
-      <c r="C5">
-        <v>0.1258</v>
-      </c>
-      <c r="D5">
-        <v>0.1635</v>
-      </c>
-      <c r="E5">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <v>0.1696</v>
-      </c>
-      <c r="C6">
-        <v>0.1426</v>
-      </c>
-      <c r="D6">
-        <v>0.1941</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>3.8582</v>
-      </c>
-      <c r="E7">
-        <v>3.7589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>0.6315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9">
-        <v>0.7232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10">
-        <v>0.6514</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>0.6289</v>
-      </c>
-      <c r="C15">
-        <v>0.1577</v>
-      </c>
-      <c r="D15">
-        <v>0.8796</v>
       </c>
     </row>
   </sheetData>

--- a/supplementary/data6.xlsx
+++ b/supplementary/data6.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="50">
   <si>
-    <t>Supplemental Data 6: Varying proximity simulation parameters and corresponding fit values</t>
+    <t>Supplementary File 6: Varying proximity simulation parameters and corresponding fit values</t>
   </si>
   <si>
     <t>N</t>
